--- a/Guru99/Data/testdata.xlsx
+++ b/Guru99/Data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse\Guru99\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E23066A-3A38-4478-B37C-8B8685F177AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5155CEB3-25FA-4799-9847-60BAD13A18F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2775" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
